--- a/Python_ENEL_FOE_TESTE_23092022.xlsx
+++ b/Python_ENEL_FOE_TESTE_23092022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 24\DEV SINERGIA\SIN.ENEL V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\DEV SINERGIA\SIN.LIGHT V2.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ACCDD0-A791-4F4A-9D1F-72DA82784ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8476F49A-B8EB-4C44-850F-41665E57BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B7DF123F-522B-4787-AD33-6D4043270974}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7DF123F-522B-4787-AD33-6D4043270974}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$B$1:$AJ$96</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
   <si>
     <t>FORMULÁRIO DE ORÇAMENTO ESTIMADO</t>
   </si>
@@ -133,16 +130,10 @@
     <t>Latitude:</t>
   </si>
   <si>
-    <t>$Latitude</t>
-  </si>
-  <si>
     <t>Longitude:</t>
   </si>
   <si>
     <t>$Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carga instalada (kW):   $QuantidadeKwca                              </t>
   </si>
   <si>
     <t>Tensão de atendimento (V): 13,8 kV</t>
@@ -417,13 +408,50 @@
   </si>
   <si>
     <t>Assinatura do Responsável</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Carga instalada (kW):   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$QuantidadeKwca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                              </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$Latitude</t>
+    </r>
+  </si>
+  <si>
+    <t>$Impedancia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +518,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1003,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1077,9 +1111,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1146,21 +1177,189 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,176 +1369,35 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1658,10 +1716,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AK99"/>
+  <dimension ref="A1:AK99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1722,80 +1780,80 @@
     <row r="2" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="4"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="4"/>
     </row>
@@ -1838,44 +1896,44 @@
       <c r="AK4" s="4"/>
     </row>
     <row r="5" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="109" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="109"/>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="109"/>
-      <c r="AH5" s="109"/>
-      <c r="AI5" s="110"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="63"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="4"/>
     </row>
@@ -1883,38 +1941,38 @@
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="112"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="65"/>
       <c r="AK6" s="4"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
@@ -1947,8 +2005,8 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="72"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="48"/>
       <c r="Y7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1968,7 +2026,7 @@
       <c r="AK7" s="4"/>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="9"/>
@@ -2008,7 +2066,7 @@
       <c r="AK8" s="4"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="111" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
@@ -2026,16 +2084,16 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="58"/>
+      <c r="S9" s="112"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="4" t="s">
+      <c r="Y9" s="113" t="s">
         <v>13</v>
       </c>
       <c r="Z9" s="4"/>
@@ -2052,7 +2110,7 @@
       <c r="AK9" s="4"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4"/>
@@ -2062,7 +2120,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="113" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="4"/>
@@ -2094,7 +2152,7 @@
       <c r="AK10" s="4"/>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="111" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="4"/>
@@ -2134,7 +2192,7 @@
       <c r="AK11" s="4"/>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="114" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4"/>
@@ -2176,7 +2234,7 @@
       <c r="AK12" s="4"/>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="111" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="9"/>
@@ -2256,44 +2314,44 @@
       <c r="AK14" s="4"/>
     </row>
     <row r="15" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="80" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="81"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="53"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="4"/>
     </row>
@@ -2336,22 +2394,22 @@
       <c r="AK16" s="4"/>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="19" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2359,11 +2417,11 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="115" t="s">
         <v>25</v>
-      </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -2384,13 +2442,13 @@
       <c r="AK17" s="4"/>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B18" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -2403,7 +2461,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -2427,7 +2485,7 @@
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2435,17 +2493,17 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -2469,7 +2527,7 @@
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2480,7 +2538,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -2490,7 +2548,7 @@
       <c r="Q20" s="21"/>
       <c r="R20" s="11"/>
       <c r="S20" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -2501,7 +2559,7 @@
         <v>6</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
@@ -2517,7 +2575,7 @@
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -2557,11 +2615,11 @@
         <v>6</v>
       </c>
       <c r="AF21" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="4" t="s">
-        <v>37</v>
+      <c r="AH21" s="113" t="s">
+        <v>35</v>
       </c>
       <c r="AI21" s="21"/>
       <c r="AJ21" s="23"/>
@@ -2569,7 +2627,7 @@
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2580,7 +2638,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="24"/>
       <c r="K22" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
@@ -2590,7 +2648,7 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="24"/>
       <c r="S22" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
@@ -2601,7 +2659,7 @@
         <v>6</v>
       </c>
       <c r="Z22" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
@@ -2617,13 +2675,13 @@
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -2659,14 +2717,14 @@
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="25">
-        <v>0.05</v>
+      <c r="G24" s="116" t="s">
+        <v>119</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -2701,7 +2759,7 @@
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2714,7 +2772,7 @@
         <v>6</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -2724,7 +2782,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -2746,556 +2804,556 @@
       <c r="AK25" s="4"/>
     </row>
     <row r="26" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
       <c r="AJ26" s="23"/>
       <c r="AK26" s="4"/>
     </row>
     <row r="27" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="80" t="s">
+      <c r="B27" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AC27" s="80"/>
-      <c r="AD27" s="80"/>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="81"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="53"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="4"/>
     </row>
     <row r="28" spans="2:37" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="100" t="s">
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="100" t="s">
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="100" t="s">
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="100" t="s">
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="100" t="s">
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="92"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="72"/>
       <c r="AJ28" s="18"/>
       <c r="AK28" s="4"/>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="74"/>
+      <c r="D29" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="93" t="s">
+      <c r="M29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="U29" s="118"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="119"/>
+      <c r="X29" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="95"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE29" s="118"/>
+      <c r="AF29" s="118"/>
+      <c r="AG29" s="118"/>
+      <c r="AH29" s="118"/>
+      <c r="AI29" s="119"/>
       <c r="AJ29" s="18"/>
       <c r="AK29" s="4"/>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="86"/>
-      <c r="AF30" s="86"/>
-      <c r="AG30" s="86"/>
-      <c r="AH30" s="86"/>
-      <c r="AI30" s="87"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="74"/>
       <c r="AJ30" s="18"/>
       <c r="AK30" s="4"/>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B31" s="88"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="72"/>
-      <c r="AD31" s="85"/>
-      <c r="AE31" s="86"/>
-      <c r="AF31" s="86"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="87"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="80"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="81"/>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="74"/>
       <c r="AJ31" s="18"/>
       <c r="AK31" s="4"/>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B32" s="88"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="85"/>
-      <c r="AE32" s="86"/>
-      <c r="AF32" s="86"/>
-      <c r="AG32" s="86"/>
-      <c r="AH32" s="86"/>
-      <c r="AI32" s="87"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="80"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="74"/>
       <c r="AJ32" s="18"/>
       <c r="AK32" s="4"/>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B33" s="88"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="85"/>
-      <c r="AE33" s="86"/>
-      <c r="AF33" s="86"/>
-      <c r="AG33" s="86"/>
-      <c r="AH33" s="86"/>
-      <c r="AI33" s="87"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="80"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="81"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="74"/>
       <c r="AJ33" s="18"/>
       <c r="AK33" s="4"/>
     </row>
     <row r="34" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="75"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="75"/>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="75"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="76"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="84"/>
+      <c r="AC34" s="84"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="84"/>
+      <c r="AF34" s="84"/>
+      <c r="AG34" s="84"/>
+      <c r="AH34" s="84"/>
+      <c r="AI34" s="84"/>
+      <c r="AJ34" s="85"/>
       <c r="AK34" s="4"/>
     </row>
     <row r="35" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="78"/>
-      <c r="AB35" s="78"/>
-      <c r="AC35" s="78"/>
-      <c r="AD35" s="78"/>
-      <c r="AE35" s="78"/>
-      <c r="AF35" s="78"/>
-      <c r="AG35" s="78"/>
-      <c r="AH35" s="78"/>
-      <c r="AI35" s="78"/>
-      <c r="AJ35" s="79"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="87"/>
+      <c r="AC35" s="87"/>
+      <c r="AD35" s="87"/>
+      <c r="AE35" s="87"/>
+      <c r="AF35" s="87"/>
+      <c r="AG35" s="87"/>
+      <c r="AH35" s="87"/>
+      <c r="AI35" s="87"/>
+      <c r="AJ35" s="88"/>
       <c r="AK35" s="4"/>
     </row>
     <row r="36" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC36" s="80"/>
-      <c r="AD36" s="80"/>
-      <c r="AE36" s="80"/>
-      <c r="AF36" s="80"/>
-      <c r="AG36" s="80"/>
-      <c r="AH36" s="80"/>
-      <c r="AI36" s="81"/>
+      <c r="B36" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="53"/>
       <c r="AJ36" s="17"/>
       <c r="AK36" s="4"/>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B37" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="83"/>
-      <c r="T37" s="83"/>
-      <c r="U37" s="83"/>
-      <c r="V37" s="83"/>
-      <c r="W37" s="83"/>
-      <c r="X37" s="83"/>
-      <c r="Y37" s="83"/>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="83"/>
-      <c r="AB37" s="83"/>
-      <c r="AC37" s="83"/>
-      <c r="AD37" s="83"/>
-      <c r="AE37" s="83"/>
-      <c r="AF37" s="83"/>
-      <c r="AG37" s="83"/>
-      <c r="AH37" s="83"/>
-      <c r="AI37" s="83"/>
-      <c r="AJ37" s="84"/>
-      <c r="AK37" s="28"/>
+      <c r="B37" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="90"/>
+      <c r="AE37" s="90"/>
+      <c r="AF37" s="90"/>
+      <c r="AG37" s="90"/>
+      <c r="AH37" s="90"/>
+      <c r="AI37" s="90"/>
+      <c r="AJ37" s="91"/>
+      <c r="AK37" s="27"/>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="70">
+      <c r="B38" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="47">
         <v>1</v>
       </c>
-      <c r="N38" s="71"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="70">
+      <c r="N38" s="79"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="47">
         <v>2</v>
       </c>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="70">
+      <c r="Q38" s="79"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="47">
         <v>3</v>
       </c>
-      <c r="T38" s="71"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="70">
+      <c r="T38" s="79"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="47">
         <v>4</v>
       </c>
-      <c r="W38" s="71"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="70">
+      <c r="W38" s="79"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="47">
         <v>5</v>
       </c>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="70">
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="47">
         <v>6</v>
       </c>
-      <c r="AC38" s="71"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="70">
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="47">
         <v>7</v>
       </c>
-      <c r="AF38" s="71"/>
-      <c r="AG38" s="72"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="30"/>
-      <c r="AK38" s="28"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="27"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3307,27 +3365,27 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="33"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="32"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="18"/>
@@ -3335,7 +3393,7 @@
     </row>
     <row r="40" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3347,27 +3405,27 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="33"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="32"/>
       <c r="AH40" s="4"/>
       <c r="AI40" s="4"/>
       <c r="AJ40" s="18"/>
@@ -3375,7 +3433,7 @@
     </row>
     <row r="41" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3387,27 +3445,27 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="33"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="32"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="18"/>
@@ -3415,7 +3473,7 @@
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3427,27 +3485,27 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="33"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="31"/>
+      <c r="AG42" s="32"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="18"/>
@@ -3455,7 +3513,7 @@
     </row>
     <row r="43" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3467,27 +3525,27 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="32"/>
-      <c r="AG43" s="33"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="31"/>
+      <c r="AG43" s="32"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="18"/>
@@ -3495,7 +3553,7 @@
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3507,27 +3565,27 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="32"/>
-      <c r="AG44" s="33"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="32"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="18"/>
@@ -3535,7 +3593,7 @@
     </row>
     <row r="45" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -3547,27 +3605,27 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="32"/>
-      <c r="AG45" s="33"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="32"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="18"/>
@@ -3575,7 +3633,7 @@
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -3587,27 +3645,27 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="33"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="31"/>
+      <c r="AG46" s="32"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
       <c r="AJ46" s="18"/>
@@ -3615,7 +3673,7 @@
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3627,27 +3685,27 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="33"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="32"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
       <c r="AJ47" s="18"/>
@@ -3655,7 +3713,7 @@
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3667,27 +3725,27 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="32"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="32"/>
-      <c r="AG48" s="33"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="31"/>
+      <c r="AG48" s="32"/>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
       <c r="AJ48" s="18"/>
@@ -3695,7 +3753,7 @@
     </row>
     <row r="49" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3707,27 +3765,27 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="33"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="31"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="31"/>
+      <c r="AG49" s="32"/>
       <c r="AH49" s="4"/>
       <c r="AI49" s="4"/>
       <c r="AJ49" s="18"/>
@@ -3735,7 +3793,7 @@
     </row>
     <row r="50" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3747,27 +3805,27 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="33"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="32"/>
       <c r="AH50" s="4"/>
       <c r="AI50" s="4"/>
       <c r="AJ50" s="18"/>
@@ -3775,7 +3833,7 @@
     </row>
     <row r="51" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -3787,27 +3845,27 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="32"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="32"/>
-      <c r="AG51" s="33"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="32"/>
       <c r="AH51" s="4"/>
       <c r="AI51" s="4"/>
       <c r="AJ51" s="18"/>
@@ -3815,7 +3873,7 @@
     </row>
     <row r="52" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3827,27 +3885,27 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="32"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="31"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="33"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="31"/>
+      <c r="AD52" s="32"/>
+      <c r="AE52" s="30"/>
+      <c r="AF52" s="31"/>
+      <c r="AG52" s="32"/>
       <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
       <c r="AJ52" s="18"/>
@@ -3855,7 +3913,7 @@
     </row>
     <row r="53" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -3867,27 +3925,27 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="31"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="32"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="31"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="33"/>
-      <c r="AE53" s="31"/>
-      <c r="AF53" s="32"/>
-      <c r="AG53" s="33"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="32"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="31"/>
+      <c r="AG53" s="32"/>
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
       <c r="AJ53" s="18"/>
@@ -3895,7 +3953,7 @@
     </row>
     <row r="54" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -3907,27 +3965,27 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="32"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="32"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="31"/>
-      <c r="AC54" s="32"/>
-      <c r="AD54" s="33"/>
-      <c r="AE54" s="31"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="33"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="32"/>
+      <c r="AE54" s="30"/>
+      <c r="AF54" s="31"/>
+      <c r="AG54" s="32"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
       <c r="AJ54" s="18"/>
@@ -3935,7 +3993,7 @@
     </row>
     <row r="55" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3947,27 +4005,27 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="32"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="31"/>
-      <c r="AC55" s="32"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="31"/>
-      <c r="AF55" s="32"/>
-      <c r="AG55" s="33"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="31"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="31"/>
+      <c r="AD55" s="32"/>
+      <c r="AE55" s="30"/>
+      <c r="AF55" s="31"/>
+      <c r="AG55" s="32"/>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
       <c r="AJ55" s="18"/>
@@ -3975,7 +4033,7 @@
     </row>
     <row r="56" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3987,27 +4045,27 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="32"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="31"/>
-      <c r="AC56" s="32"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="31"/>
-      <c r="AF56" s="32"/>
-      <c r="AG56" s="33"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="31"/>
+      <c r="AD56" s="32"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="31"/>
+      <c r="AG56" s="32"/>
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="18"/>
@@ -4015,7 +4073,7 @@
     </row>
     <row r="57" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -4027,187 +4085,187 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="72"/>
-      <c r="S57" s="70"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="72"/>
-      <c r="V57" s="70"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="72"/>
-      <c r="Y57" s="70"/>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="72"/>
-      <c r="AB57" s="70"/>
-      <c r="AC57" s="71"/>
-      <c r="AD57" s="72"/>
-      <c r="AE57" s="70"/>
-      <c r="AF57" s="71"/>
-      <c r="AG57" s="72"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="79"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="79"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="79"/>
+      <c r="AA57" s="48"/>
+      <c r="AB57" s="47"/>
+      <c r="AC57" s="79"/>
+      <c r="AD57" s="48"/>
+      <c r="AE57" s="47"/>
+      <c r="AF57" s="79"/>
+      <c r="AG57" s="48"/>
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="18"/>
       <c r="AK57" s="4"/>
     </row>
     <row r="58" spans="2:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="56"/>
-      <c r="T58" s="56"/>
-      <c r="U58" s="56"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="56"/>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="56"/>
-      <c r="AB58" s="56"/>
-      <c r="AC58" s="56"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="56"/>
-      <c r="AF58" s="56"/>
-      <c r="AG58" s="56"/>
+      <c r="B58" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="92"/>
+      <c r="N58" s="92"/>
+      <c r="O58" s="92"/>
+      <c r="P58" s="92"/>
+      <c r="Q58" s="92"/>
+      <c r="R58" s="92"/>
+      <c r="S58" s="92"/>
+      <c r="T58" s="92"/>
+      <c r="U58" s="92"/>
+      <c r="V58" s="92"/>
+      <c r="W58" s="92"/>
+      <c r="X58" s="92"/>
+      <c r="Y58" s="92"/>
+      <c r="Z58" s="92"/>
+      <c r="AA58" s="92"/>
+      <c r="AB58" s="92"/>
+      <c r="AC58" s="92"/>
+      <c r="AD58" s="92"/>
+      <c r="AE58" s="92"/>
+      <c r="AF58" s="92"/>
+      <c r="AG58" s="92"/>
       <c r="AH58" s="4"/>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="18"/>
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="2:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="32"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="32"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="31"/>
-      <c r="AC59" s="32"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="31"/>
-      <c r="AF59" s="32"/>
-      <c r="AG59" s="33"/>
+      <c r="B59" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="31"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="31"/>
+      <c r="AD59" s="32"/>
+      <c r="AE59" s="30"/>
+      <c r="AF59" s="31"/>
+      <c r="AG59" s="32"/>
       <c r="AH59" s="4"/>
       <c r="AI59" s="4"/>
       <c r="AJ59" s="18"/>
       <c r="AK59" s="4"/>
     </row>
     <row r="60" spans="2:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="69"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="69"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="69"/>
-      <c r="V60" s="67"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="69"/>
-      <c r="Y60" s="67"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="69"/>
-      <c r="AB60" s="67"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="69"/>
-      <c r="AE60" s="67"/>
-      <c r="AF60" s="68"/>
-      <c r="AG60" s="69"/>
+      <c r="B60" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="97"/>
+      <c r="O60" s="98"/>
+      <c r="P60" s="96"/>
+      <c r="Q60" s="97"/>
+      <c r="R60" s="98"/>
+      <c r="S60" s="96"/>
+      <c r="T60" s="97"/>
+      <c r="U60" s="98"/>
+      <c r="V60" s="96"/>
+      <c r="W60" s="97"/>
+      <c r="X60" s="98"/>
+      <c r="Y60" s="96"/>
+      <c r="Z60" s="97"/>
+      <c r="AA60" s="98"/>
+      <c r="AB60" s="96"/>
+      <c r="AC60" s="97"/>
+      <c r="AD60" s="98"/>
+      <c r="AE60" s="96"/>
+      <c r="AF60" s="97"/>
+      <c r="AG60" s="98"/>
       <c r="AH60" s="4"/>
       <c r="AI60" s="4"/>
       <c r="AJ60" s="18"/>
       <c r="AK60" s="4"/>
     </row>
     <row r="61" spans="2:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="70"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="70"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="70"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="72"/>
-      <c r="Y61" s="70"/>
-      <c r="Z61" s="71"/>
-      <c r="AA61" s="72"/>
-      <c r="AB61" s="70"/>
-      <c r="AC61" s="71"/>
-      <c r="AD61" s="72"/>
-      <c r="AE61" s="70"/>
-      <c r="AF61" s="71"/>
-      <c r="AG61" s="72"/>
+      <c r="B61" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="94"/>
+      <c r="K61" s="94"/>
+      <c r="L61" s="94"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="79"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="79"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="79"/>
+      <c r="X61" s="48"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="79"/>
+      <c r="AA61" s="48"/>
+      <c r="AB61" s="47"/>
+      <c r="AC61" s="79"/>
+      <c r="AD61" s="48"/>
+      <c r="AE61" s="47"/>
+      <c r="AF61" s="79"/>
+      <c r="AG61" s="48"/>
       <c r="AH61" s="4"/>
       <c r="AI61" s="4"/>
       <c r="AJ61" s="18"/>
@@ -4215,7 +4273,7 @@
     </row>
     <row r="62" spans="2:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -4227,46 +4285,46 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="56"/>
-      <c r="T62" s="56"/>
-      <c r="U62" s="56"/>
-      <c r="V62" s="56"/>
-      <c r="W62" s="56"/>
-      <c r="X62" s="56"/>
-      <c r="Y62" s="56"/>
-      <c r="Z62" s="56"/>
-      <c r="AA62" s="56"/>
-      <c r="AB62" s="56"/>
-      <c r="AC62" s="56"/>
-      <c r="AD62" s="56"/>
-      <c r="AE62" s="56"/>
-      <c r="AF62" s="56"/>
-      <c r="AG62" s="56"/>
+      <c r="M62" s="92"/>
+      <c r="N62" s="92"/>
+      <c r="O62" s="92"/>
+      <c r="P62" s="92"/>
+      <c r="Q62" s="92"/>
+      <c r="R62" s="92"/>
+      <c r="S62" s="92"/>
+      <c r="T62" s="92"/>
+      <c r="U62" s="92"/>
+      <c r="V62" s="92"/>
+      <c r="W62" s="92"/>
+      <c r="X62" s="92"/>
+      <c r="Y62" s="92"/>
+      <c r="Z62" s="92"/>
+      <c r="AA62" s="92"/>
+      <c r="AB62" s="92"/>
+      <c r="AC62" s="92"/>
+      <c r="AD62" s="92"/>
+      <c r="AE62" s="92"/>
+      <c r="AF62" s="92"/>
+      <c r="AG62" s="92"/>
       <c r="AH62" s="4"/>
       <c r="AI62" s="4"/>
       <c r="AJ62" s="18"/>
       <c r="AK62" s="4"/>
     </row>
     <row r="63" spans="2:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
+      <c r="B63" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="94"/>
+      <c r="J63" s="94"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="94"/>
       <c r="M63" s="21"/>
       <c r="N63" s="21"/>
       <c r="O63" s="21"/>
@@ -4290,130 +4348,130 @@
       <c r="AG63" s="21"/>
       <c r="AH63" s="21"/>
       <c r="AI63" s="21"/>
-      <c r="AJ63" s="34"/>
+      <c r="AJ63" s="33"/>
       <c r="AK63" s="4"/>
     </row>
     <row r="64" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="58"/>
-      <c r="M64" s="58"/>
-      <c r="N64" s="58"/>
-      <c r="O64" s="58"/>
-      <c r="P64" s="58"/>
-      <c r="Q64" s="58"/>
-      <c r="R64" s="58"/>
-      <c r="S64" s="58"/>
-      <c r="T64" s="58"/>
-      <c r="U64" s="58"/>
-      <c r="V64" s="58"/>
-      <c r="W64" s="58"/>
-      <c r="X64" s="58"/>
-      <c r="Y64" s="58"/>
-      <c r="Z64" s="58"/>
-      <c r="AA64" s="58"/>
-      <c r="AB64" s="58"/>
-      <c r="AC64" s="58"/>
-      <c r="AD64" s="58"/>
-      <c r="AE64" s="58"/>
-      <c r="AF64" s="58"/>
-      <c r="AG64" s="58"/>
-      <c r="AH64" s="58"/>
-      <c r="AI64" s="58"/>
-      <c r="AJ64" s="59"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="49"/>
+      <c r="V64" s="49"/>
+      <c r="W64" s="49"/>
+      <c r="X64" s="49"/>
+      <c r="Y64" s="49"/>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="49"/>
+      <c r="AC64" s="49"/>
+      <c r="AD64" s="49"/>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="49"/>
+      <c r="AG64" s="49"/>
+      <c r="AH64" s="49"/>
+      <c r="AI64" s="49"/>
+      <c r="AJ64" s="99"/>
       <c r="AK64" s="4"/>
     </row>
     <row r="65" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="61"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="61"/>
-      <c r="V65" s="61"/>
-      <c r="W65" s="61"/>
-      <c r="X65" s="61"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="61"/>
-      <c r="AA65" s="61"/>
-      <c r="AB65" s="61"/>
-      <c r="AC65" s="61"/>
-      <c r="AD65" s="61"/>
-      <c r="AE65" s="61"/>
-      <c r="AF65" s="61"/>
-      <c r="AG65" s="61"/>
-      <c r="AH65" s="61"/>
-      <c r="AI65" s="61"/>
-      <c r="AJ65" s="62"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="101"/>
+      <c r="L65" s="101"/>
+      <c r="M65" s="101"/>
+      <c r="N65" s="101"/>
+      <c r="O65" s="101"/>
+      <c r="P65" s="101"/>
+      <c r="Q65" s="101"/>
+      <c r="R65" s="101"/>
+      <c r="S65" s="101"/>
+      <c r="T65" s="101"/>
+      <c r="U65" s="101"/>
+      <c r="V65" s="101"/>
+      <c r="W65" s="101"/>
+      <c r="X65" s="101"/>
+      <c r="Y65" s="101"/>
+      <c r="Z65" s="101"/>
+      <c r="AA65" s="101"/>
+      <c r="AB65" s="101"/>
+      <c r="AC65" s="101"/>
+      <c r="AD65" s="101"/>
+      <c r="AE65" s="101"/>
+      <c r="AF65" s="101"/>
+      <c r="AG65" s="101"/>
+      <c r="AH65" s="101"/>
+      <c r="AI65" s="101"/>
+      <c r="AJ65" s="102"/>
       <c r="AK65" s="4"/>
     </row>
     <row r="66" spans="2:37" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="64"/>
-      <c r="Q66" s="64"/>
-      <c r="R66" s="64"/>
-      <c r="S66" s="64"/>
-      <c r="T66" s="64"/>
-      <c r="U66" s="64"/>
-      <c r="V66" s="64"/>
-      <c r="W66" s="64"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="64"/>
-      <c r="Z66" s="64"/>
-      <c r="AA66" s="64"/>
-      <c r="AB66" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC66" s="65"/>
-      <c r="AD66" s="65"/>
-      <c r="AE66" s="65"/>
-      <c r="AF66" s="65"/>
-      <c r="AG66" s="65"/>
-      <c r="AH66" s="65"/>
-      <c r="AI66" s="66"/>
-      <c r="AJ66" s="34"/>
+      <c r="B66" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="104"/>
+      <c r="L66" s="104"/>
+      <c r="M66" s="104"/>
+      <c r="N66" s="104"/>
+      <c r="O66" s="104"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="104"/>
+      <c r="R66" s="104"/>
+      <c r="S66" s="104"/>
+      <c r="T66" s="104"/>
+      <c r="U66" s="104"/>
+      <c r="V66" s="104"/>
+      <c r="W66" s="104"/>
+      <c r="X66" s="104"/>
+      <c r="Y66" s="104"/>
+      <c r="Z66" s="104"/>
+      <c r="AA66" s="104"/>
+      <c r="AB66" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC66" s="105"/>
+      <c r="AD66" s="105"/>
+      <c r="AE66" s="105"/>
+      <c r="AF66" s="105"/>
+      <c r="AG66" s="105"/>
+      <c r="AH66" s="105"/>
+      <c r="AI66" s="106"/>
+      <c r="AJ66" s="33"/>
       <c r="AK66" s="4"/>
     </row>
     <row r="67" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
@@ -4448,12 +4506,12 @@
       <c r="AG67" s="21"/>
       <c r="AH67" s="21"/>
       <c r="AI67" s="21"/>
-      <c r="AJ67" s="34"/>
+      <c r="AJ67" s="33"/>
       <c r="AK67" s="4"/>
     </row>
     <row r="68" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
@@ -4488,12 +4546,12 @@
       <c r="AG68" s="21"/>
       <c r="AH68" s="21"/>
       <c r="AI68" s="21"/>
-      <c r="AJ68" s="34"/>
+      <c r="AJ68" s="33"/>
       <c r="AK68" s="4"/>
     </row>
     <row r="69" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
@@ -4528,12 +4586,12 @@
       <c r="AG69" s="21"/>
       <c r="AH69" s="21"/>
       <c r="AI69" s="21"/>
-      <c r="AJ69" s="34"/>
+      <c r="AJ69" s="33"/>
       <c r="AK69" s="4"/>
     </row>
     <row r="70" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -4568,36 +4626,36 @@
       <c r="AG70" s="21"/>
       <c r="AH70" s="21"/>
       <c r="AI70" s="21"/>
-      <c r="AJ70" s="34"/>
+      <c r="AJ70" s="33"/>
       <c r="AK70" s="4"/>
     </row>
     <row r="71" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B71" s="35"/>
-      <c r="C71" s="36" t="s">
-        <v>96</v>
+      <c r="B71" s="34"/>
+      <c r="C71" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="36" t="s">
-        <v>97</v>
+      <c r="I71" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="J71" s="24"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="36" t="s">
-        <v>98</v>
+      <c r="N71" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="O71" s="24"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-      <c r="T71" s="36" t="s">
-        <v>99</v>
+      <c r="T71" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="U71" s="24"/>
       <c r="V71" s="20"/>
@@ -4607,8 +4665,8 @@
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="36" t="s">
-        <v>100</v>
+      <c r="AC71" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="AD71" s="24"/>
       <c r="AE71" s="20"/>
@@ -4616,29 +4674,29 @@
       <c r="AG71" s="20"/>
       <c r="AH71" s="20"/>
       <c r="AI71" s="21"/>
-      <c r="AJ71" s="34"/>
+      <c r="AJ71" s="33"/>
       <c r="AK71" s="4"/>
     </row>
     <row r="72" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="4"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="36"/>
+      <c r="I72" s="35"/>
       <c r="J72" s="20"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="36"/>
+      <c r="N72" s="35"/>
       <c r="O72" s="20"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="36"/>
+      <c r="T72" s="35"/>
       <c r="U72" s="20"/>
       <c r="V72" s="20"/>
       <c r="W72" s="20"/>
@@ -4647,19 +4705,19 @@
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="36"/>
+      <c r="AC72" s="35"/>
       <c r="AD72" s="20"/>
       <c r="AE72" s="20"/>
       <c r="AF72" s="20"/>
       <c r="AG72" s="20"/>
       <c r="AH72" s="21"/>
       <c r="AI72" s="21"/>
-      <c r="AJ72" s="34"/>
+      <c r="AJ72" s="33"/>
       <c r="AK72" s="4"/>
     </row>
     <row r="73" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -4672,13 +4730,13 @@
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
-      <c r="N73" s="36"/>
+      <c r="N73" s="35"/>
       <c r="O73" s="20"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-      <c r="T73" s="36"/>
+      <c r="T73" s="35"/>
       <c r="U73" s="20"/>
       <c r="V73" s="20"/>
       <c r="W73" s="20"/>
@@ -4687,19 +4745,19 @@
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
-      <c r="AC73" s="36"/>
+      <c r="AC73" s="35"/>
       <c r="AD73" s="20"/>
       <c r="AE73" s="20"/>
       <c r="AF73" s="20"/>
       <c r="AG73" s="20"/>
       <c r="AH73" s="21"/>
       <c r="AI73" s="21"/>
-      <c r="AJ73" s="34"/>
+      <c r="AJ73" s="33"/>
       <c r="AK73" s="4"/>
     </row>
     <row r="74" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="21"/>
       <c r="D74" s="21"/>
@@ -4734,28 +4792,28 @@
       <c r="AG74" s="21"/>
       <c r="AH74" s="21"/>
       <c r="AI74" s="21"/>
-      <c r="AJ74" s="34"/>
+      <c r="AJ74" s="33"/>
       <c r="AK74" s="4"/>
     </row>
     <row r="75" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
-      <c r="C75" s="36" t="s">
-        <v>32</v>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="36" t="s">
-        <v>33</v>
+      <c r="I75" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="J75" s="24"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="36" t="s">
-        <v>34</v>
+      <c r="N75" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="O75" s="24"/>
       <c r="P75" s="21"/>
@@ -4778,11 +4836,11 @@
       <c r="AG75" s="21"/>
       <c r="AH75" s="21"/>
       <c r="AI75" s="21"/>
-      <c r="AJ75" s="34"/>
+      <c r="AJ75" s="33"/>
       <c r="AK75" s="4"/>
     </row>
     <row r="76" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="37"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
@@ -4816,724 +4874,724 @@
       <c r="AG76" s="21"/>
       <c r="AH76" s="21"/>
       <c r="AI76" s="21"/>
-      <c r="AJ76" s="34"/>
+      <c r="AJ76" s="33"/>
       <c r="AK76" s="4"/>
     </row>
     <row r="77" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+      <c r="T77" s="51"/>
+      <c r="U77" s="51"/>
+      <c r="V77" s="51"/>
+      <c r="W77" s="51"/>
+      <c r="X77" s="51"/>
+      <c r="Y77" s="51"/>
+      <c r="Z77" s="51"/>
+      <c r="AA77" s="51"/>
+      <c r="AB77" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC77" s="109"/>
+      <c r="AD77" s="109"/>
+      <c r="AE77" s="109"/>
+      <c r="AF77" s="109"/>
+      <c r="AG77" s="109"/>
+      <c r="AH77" s="109"/>
+      <c r="AI77" s="109"/>
+      <c r="AJ77" s="110"/>
+      <c r="AK77" s="4"/>
+    </row>
+    <row r="78" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B78" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="38"/>
+      <c r="AA78" s="38"/>
+      <c r="AB78" s="38"/>
+      <c r="AC78" s="38"/>
+      <c r="AD78" s="38"/>
+      <c r="AE78" s="38"/>
+      <c r="AF78" s="38"/>
+      <c r="AG78" s="38"/>
+      <c r="AH78" s="38"/>
+      <c r="AI78" s="38"/>
+      <c r="AJ78" s="39"/>
+      <c r="AK78" s="4"/>
+    </row>
+    <row r="79" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B79" s="37"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="38"/>
+      <c r="Y79" s="38"/>
+      <c r="Z79" s="38"/>
+      <c r="AA79" s="38"/>
+      <c r="AB79" s="38"/>
+      <c r="AC79" s="38"/>
+      <c r="AD79" s="38"/>
+      <c r="AE79" s="38"/>
+      <c r="AF79" s="38"/>
+      <c r="AG79" s="38"/>
+      <c r="AH79" s="38"/>
+      <c r="AI79" s="38"/>
+      <c r="AJ79" s="39"/>
+      <c r="AK79" s="4"/>
+    </row>
+    <row r="80" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B80" s="40"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="41"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="41"/>
+      <c r="S80" s="41"/>
+      <c r="T80" s="41"/>
+      <c r="U80" s="41"/>
+      <c r="V80" s="41"/>
+      <c r="W80" s="41"/>
+      <c r="X80" s="41"/>
+      <c r="Y80" s="41"/>
+      <c r="Z80" s="41"/>
+      <c r="AA80" s="41"/>
+      <c r="AB80" s="41"/>
+      <c r="AC80" s="41"/>
+      <c r="AD80" s="41"/>
+      <c r="AE80" s="41"/>
+      <c r="AF80" s="41"/>
+      <c r="AG80" s="41"/>
+      <c r="AH80" s="41"/>
+      <c r="AI80" s="41"/>
+      <c r="AJ80" s="42"/>
+      <c r="AK80" s="4"/>
+    </row>
+    <row r="81" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B81" s="40"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="41"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="41"/>
+      <c r="S81" s="41"/>
+      <c r="T81" s="41"/>
+      <c r="U81" s="41"/>
+      <c r="V81" s="41"/>
+      <c r="W81" s="41"/>
+      <c r="X81" s="41"/>
+      <c r="Y81" s="41"/>
+      <c r="Z81" s="41"/>
+      <c r="AA81" s="41"/>
+      <c r="AB81" s="41"/>
+      <c r="AC81" s="41"/>
+      <c r="AD81" s="41"/>
+      <c r="AE81" s="41"/>
+      <c r="AF81" s="41"/>
+      <c r="AG81" s="41"/>
+      <c r="AH81" s="41"/>
+      <c r="AI81" s="41"/>
+      <c r="AJ81" s="42"/>
+      <c r="AK81" s="4"/>
+    </row>
+    <row r="82" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="40"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="41"/>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
+      <c r="AA82" s="41"/>
+      <c r="AB82" s="41"/>
+      <c r="AC82" s="41"/>
+      <c r="AD82" s="41"/>
+      <c r="AE82" s="41"/>
+      <c r="AF82" s="41"/>
+      <c r="AG82" s="41"/>
+      <c r="AH82" s="41"/>
+      <c r="AI82" s="41"/>
+      <c r="AJ82" s="42"/>
+      <c r="AK82" s="4"/>
+    </row>
+    <row r="83" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="52"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="52"/>
-      <c r="X77" s="52"/>
-      <c r="Y77" s="52"/>
-      <c r="Z77" s="52"/>
-      <c r="AA77" s="52"/>
-      <c r="AB77" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC77" s="54"/>
-      <c r="AD77" s="54"/>
-      <c r="AE77" s="54"/>
-      <c r="AF77" s="54"/>
-      <c r="AG77" s="54"/>
-      <c r="AH77" s="54"/>
-      <c r="AI77" s="54"/>
-      <c r="AJ77" s="55"/>
-      <c r="AK77" s="4"/>
-    </row>
-    <row r="78" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B78" s="38" t="s">
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="51"/>
+      <c r="U83" s="51"/>
+      <c r="V83" s="51"/>
+      <c r="W83" s="51"/>
+      <c r="X83" s="51"/>
+      <c r="Y83" s="51"/>
+      <c r="Z83" s="51"/>
+      <c r="AA83" s="51"/>
+      <c r="AB83" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="39"/>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="39"/>
-      <c r="AA78" s="39"/>
-      <c r="AB78" s="39"/>
-      <c r="AC78" s="39"/>
-      <c r="AD78" s="39"/>
-      <c r="AE78" s="39"/>
-      <c r="AF78" s="39"/>
-      <c r="AG78" s="39"/>
-      <c r="AH78" s="39"/>
-      <c r="AI78" s="39"/>
-      <c r="AJ78" s="40"/>
-      <c r="AK78" s="4"/>
-    </row>
-    <row r="79" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B79" s="38"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="39"/>
-      <c r="AA79" s="39"/>
-      <c r="AB79" s="39"/>
-      <c r="AC79" s="39"/>
-      <c r="AD79" s="39"/>
-      <c r="AE79" s="39"/>
-      <c r="AF79" s="39"/>
-      <c r="AG79" s="39"/>
-      <c r="AH79" s="39"/>
-      <c r="AI79" s="39"/>
-      <c r="AJ79" s="40"/>
-      <c r="AK79" s="4"/>
-    </row>
-    <row r="80" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="42"/>
-      <c r="P80" s="42"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="42"/>
-      <c r="T80" s="42"/>
-      <c r="U80" s="42"/>
-      <c r="V80" s="42"/>
-      <c r="W80" s="42"/>
-      <c r="X80" s="42"/>
-      <c r="Y80" s="42"/>
-      <c r="Z80" s="42"/>
-      <c r="AA80" s="42"/>
-      <c r="AB80" s="42"/>
-      <c r="AC80" s="42"/>
-      <c r="AD80" s="42"/>
-      <c r="AE80" s="42"/>
-      <c r="AF80" s="42"/>
-      <c r="AG80" s="42"/>
-      <c r="AH80" s="42"/>
-      <c r="AI80" s="42"/>
-      <c r="AJ80" s="43"/>
-      <c r="AK80" s="4"/>
-    </row>
-    <row r="81" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="42"/>
-      <c r="T81" s="42"/>
-      <c r="U81" s="42"/>
-      <c r="V81" s="42"/>
-      <c r="W81" s="42"/>
-      <c r="X81" s="42"/>
-      <c r="Y81" s="42"/>
-      <c r="Z81" s="42"/>
-      <c r="AA81" s="42"/>
-      <c r="AB81" s="42"/>
-      <c r="AC81" s="42"/>
-      <c r="AD81" s="42"/>
-      <c r="AE81" s="42"/>
-      <c r="AF81" s="42"/>
-      <c r="AG81" s="42"/>
-      <c r="AH81" s="42"/>
-      <c r="AI81" s="42"/>
-      <c r="AJ81" s="43"/>
-      <c r="AK81" s="4"/>
-    </row>
-    <row r="82" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="42"/>
-      <c r="S82" s="42"/>
-      <c r="T82" s="42"/>
-      <c r="U82" s="42"/>
-      <c r="V82" s="42"/>
-      <c r="W82" s="42"/>
-      <c r="X82" s="42"/>
-      <c r="Y82" s="42"/>
-      <c r="Z82" s="42"/>
-      <c r="AA82" s="42"/>
-      <c r="AB82" s="42"/>
-      <c r="AC82" s="42"/>
-      <c r="AD82" s="42"/>
-      <c r="AE82" s="42"/>
-      <c r="AF82" s="42"/>
-      <c r="AG82" s="42"/>
-      <c r="AH82" s="42"/>
-      <c r="AI82" s="42"/>
-      <c r="AJ82" s="43"/>
-      <c r="AK82" s="4"/>
-    </row>
-    <row r="83" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="52"/>
-      <c r="P83" s="52"/>
-      <c r="Q83" s="52"/>
-      <c r="R83" s="52"/>
-      <c r="S83" s="52"/>
-      <c r="T83" s="52"/>
-      <c r="U83" s="52"/>
-      <c r="V83" s="52"/>
-      <c r="W83" s="52"/>
-      <c r="X83" s="52"/>
-      <c r="Y83" s="52"/>
-      <c r="Z83" s="52"/>
-      <c r="AA83" s="52"/>
-      <c r="AB83" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC83" s="54"/>
-      <c r="AD83" s="54"/>
-      <c r="AE83" s="54"/>
-      <c r="AF83" s="54"/>
-      <c r="AG83" s="54"/>
-      <c r="AH83" s="54"/>
-      <c r="AI83" s="54"/>
-      <c r="AJ83" s="55"/>
+      <c r="AC83" s="109"/>
+      <c r="AD83" s="109"/>
+      <c r="AE83" s="109"/>
+      <c r="AF83" s="109"/>
+      <c r="AG83" s="109"/>
+      <c r="AH83" s="109"/>
+      <c r="AI83" s="109"/>
+      <c r="AJ83" s="110"/>
       <c r="AK83" s="4"/>
     </row>
     <row r="84" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
-      <c r="AG84" s="27"/>
-      <c r="AH84" s="27"/>
-      <c r="AI84" s="27"/>
-      <c r="AJ84" s="44"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26"/>
+      <c r="S84" s="26"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="26"/>
+      <c r="V84" s="26"/>
+      <c r="W84" s="26"/>
+      <c r="X84" s="26"/>
+      <c r="Y84" s="26"/>
+      <c r="Z84" s="26"/>
+      <c r="AA84" s="26"/>
+      <c r="AB84" s="26"/>
+      <c r="AC84" s="26"/>
+      <c r="AD84" s="26"/>
+      <c r="AE84" s="26"/>
+      <c r="AF84" s="26"/>
+      <c r="AG84" s="26"/>
+      <c r="AH84" s="26"/>
+      <c r="AI84" s="26"/>
+      <c r="AJ84" s="43"/>
       <c r="AK84" s="4"/>
     </row>
     <row r="85" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="94"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="94"/>
+      <c r="J85" s="94"/>
+      <c r="K85" s="94"/>
+      <c r="L85" s="94"/>
+      <c r="M85" s="94"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="94"/>
+      <c r="P85" s="94"/>
+      <c r="Q85" s="94"/>
+      <c r="R85" s="94"/>
+      <c r="S85" s="94"/>
+      <c r="T85" s="94"/>
+      <c r="U85" s="94"/>
+      <c r="V85" s="94"/>
+      <c r="W85" s="94"/>
+      <c r="X85" s="94"/>
+      <c r="Y85" s="94"/>
+      <c r="Z85" s="94"/>
+      <c r="AA85" s="94"/>
+      <c r="AB85" s="94"/>
+      <c r="AC85" s="94"/>
+      <c r="AD85" s="94"/>
+      <c r="AE85" s="94"/>
+      <c r="AF85" s="94"/>
+      <c r="AG85" s="94"/>
+      <c r="AH85" s="94"/>
+      <c r="AI85" s="94"/>
+      <c r="AJ85" s="43"/>
+      <c r="AK85" s="4"/>
+    </row>
+    <row r="86" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B86" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="94"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="94"/>
+      <c r="F86" s="94"/>
+      <c r="G86" s="94"/>
+      <c r="H86" s="94"/>
+      <c r="I86" s="94"/>
+      <c r="J86" s="94"/>
+      <c r="K86" s="94"/>
+      <c r="L86" s="94"/>
+      <c r="M86" s="94"/>
+      <c r="N86" s="94"/>
+      <c r="O86" s="94"/>
+      <c r="P86" s="94"/>
+      <c r="Q86" s="94"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="94"/>
+      <c r="T86" s="94"/>
+      <c r="U86" s="94"/>
+      <c r="V86" s="94"/>
+      <c r="W86" s="94"/>
+      <c r="X86" s="94"/>
+      <c r="Y86" s="94"/>
+      <c r="Z86" s="94"/>
+      <c r="AA86" s="94"/>
+      <c r="AB86" s="94"/>
+      <c r="AC86" s="94"/>
+      <c r="AD86" s="94"/>
+      <c r="AE86" s="94"/>
+      <c r="AF86" s="94"/>
+      <c r="AG86" s="94"/>
+      <c r="AH86" s="94"/>
+      <c r="AI86" s="94"/>
+      <c r="AJ86" s="43"/>
+      <c r="AK86" s="4"/>
+    </row>
+    <row r="87" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B87" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="50"/>
-      <c r="P85" s="50"/>
-      <c r="Q85" s="50"/>
-      <c r="R85" s="50"/>
-      <c r="S85" s="50"/>
-      <c r="T85" s="50"/>
-      <c r="U85" s="50"/>
-      <c r="V85" s="50"/>
-      <c r="W85" s="50"/>
-      <c r="X85" s="50"/>
-      <c r="Y85" s="50"/>
-      <c r="Z85" s="50"/>
-      <c r="AA85" s="50"/>
-      <c r="AB85" s="50"/>
-      <c r="AC85" s="50"/>
-      <c r="AD85" s="50"/>
-      <c r="AE85" s="50"/>
-      <c r="AF85" s="50"/>
-      <c r="AG85" s="50"/>
-      <c r="AH85" s="50"/>
-      <c r="AI85" s="50"/>
-      <c r="AJ85" s="44"/>
-      <c r="AK85" s="4"/>
-    </row>
-    <row r="86" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B86" s="49" t="s">
+      <c r="C87" s="94"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="94"/>
+      <c r="H87" s="94"/>
+      <c r="I87" s="94"/>
+      <c r="J87" s="94"/>
+      <c r="K87" s="94"/>
+      <c r="L87" s="94"/>
+      <c r="M87" s="94"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="94"/>
+      <c r="P87" s="94"/>
+      <c r="Q87" s="94"/>
+      <c r="R87" s="94"/>
+      <c r="S87" s="94"/>
+      <c r="T87" s="94"/>
+      <c r="U87" s="94"/>
+      <c r="V87" s="94"/>
+      <c r="W87" s="94"/>
+      <c r="X87" s="94"/>
+      <c r="Y87" s="94"/>
+      <c r="Z87" s="94"/>
+      <c r="AA87" s="94"/>
+      <c r="AB87" s="94"/>
+      <c r="AC87" s="94"/>
+      <c r="AD87" s="94"/>
+      <c r="AE87" s="94"/>
+      <c r="AF87" s="94"/>
+      <c r="AG87" s="94"/>
+      <c r="AH87" s="94"/>
+      <c r="AI87" s="94"/>
+      <c r="AJ87" s="43"/>
+      <c r="AK87" s="4"/>
+    </row>
+    <row r="88" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B88" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="50"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="50"/>
-      <c r="Q86" s="50"/>
-      <c r="R86" s="50"/>
-      <c r="S86" s="50"/>
-      <c r="T86" s="50"/>
-      <c r="U86" s="50"/>
-      <c r="V86" s="50"/>
-      <c r="W86" s="50"/>
-      <c r="X86" s="50"/>
-      <c r="Y86" s="50"/>
-      <c r="Z86" s="50"/>
-      <c r="AA86" s="50"/>
-      <c r="AB86" s="50"/>
-      <c r="AC86" s="50"/>
-      <c r="AD86" s="50"/>
-      <c r="AE86" s="50"/>
-      <c r="AF86" s="50"/>
-      <c r="AG86" s="50"/>
-      <c r="AH86" s="50"/>
-      <c r="AI86" s="50"/>
-      <c r="AJ86" s="44"/>
-      <c r="AK86" s="4"/>
-    </row>
-    <row r="87" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B87" s="49" t="s">
+      <c r="C88" s="94"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="94"/>
+      <c r="F88" s="94"/>
+      <c r="G88" s="94"/>
+      <c r="H88" s="94"/>
+      <c r="I88" s="94"/>
+      <c r="J88" s="94"/>
+      <c r="K88" s="94"/>
+      <c r="L88" s="94"/>
+      <c r="M88" s="94"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="94"/>
+      <c r="P88" s="94"/>
+      <c r="Q88" s="94"/>
+      <c r="R88" s="94"/>
+      <c r="S88" s="94"/>
+      <c r="T88" s="94"/>
+      <c r="U88" s="94"/>
+      <c r="V88" s="94"/>
+      <c r="W88" s="94"/>
+      <c r="X88" s="94"/>
+      <c r="Y88" s="94"/>
+      <c r="Z88" s="94"/>
+      <c r="AA88" s="94"/>
+      <c r="AB88" s="94"/>
+      <c r="AC88" s="94"/>
+      <c r="AD88" s="94"/>
+      <c r="AE88" s="94"/>
+      <c r="AF88" s="94"/>
+      <c r="AG88" s="94"/>
+      <c r="AH88" s="94"/>
+      <c r="AI88" s="94"/>
+      <c r="AJ88" s="43"/>
+      <c r="AK88" s="4"/>
+    </row>
+    <row r="89" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B89" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="50"/>
-      <c r="O87" s="50"/>
-      <c r="P87" s="50"/>
-      <c r="Q87" s="50"/>
-      <c r="R87" s="50"/>
-      <c r="S87" s="50"/>
-      <c r="T87" s="50"/>
-      <c r="U87" s="50"/>
-      <c r="V87" s="50"/>
-      <c r="W87" s="50"/>
-      <c r="X87" s="50"/>
-      <c r="Y87" s="50"/>
-      <c r="Z87" s="50"/>
-      <c r="AA87" s="50"/>
-      <c r="AB87" s="50"/>
-      <c r="AC87" s="50"/>
-      <c r="AD87" s="50"/>
-      <c r="AE87" s="50"/>
-      <c r="AF87" s="50"/>
-      <c r="AG87" s="50"/>
-      <c r="AH87" s="50"/>
-      <c r="AI87" s="50"/>
-      <c r="AJ87" s="44"/>
-      <c r="AK87" s="4"/>
-    </row>
-    <row r="88" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B88" s="49" t="s">
+      <c r="C89" s="94"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="94"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="94"/>
+      <c r="H89" s="94"/>
+      <c r="I89" s="94"/>
+      <c r="J89" s="94"/>
+      <c r="K89" s="94"/>
+      <c r="L89" s="94"/>
+      <c r="M89" s="94"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="94"/>
+      <c r="P89" s="94"/>
+      <c r="Q89" s="94"/>
+      <c r="R89" s="94"/>
+      <c r="S89" s="94"/>
+      <c r="T89" s="94"/>
+      <c r="U89" s="94"/>
+      <c r="V89" s="94"/>
+      <c r="W89" s="94"/>
+      <c r="X89" s="94"/>
+      <c r="Y89" s="94"/>
+      <c r="Z89" s="94"/>
+      <c r="AA89" s="94"/>
+      <c r="AB89" s="94"/>
+      <c r="AC89" s="94"/>
+      <c r="AD89" s="94"/>
+      <c r="AE89" s="94"/>
+      <c r="AF89" s="94"/>
+      <c r="AG89" s="94"/>
+      <c r="AH89" s="94"/>
+      <c r="AI89" s="94"/>
+      <c r="AJ89" s="43"/>
+      <c r="AK89" s="4"/>
+    </row>
+    <row r="90" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B90" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="50"/>
-      <c r="L88" s="50"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="50"/>
-      <c r="Q88" s="50"/>
-      <c r="R88" s="50"/>
-      <c r="S88" s="50"/>
-      <c r="T88" s="50"/>
-      <c r="U88" s="50"/>
-      <c r="V88" s="50"/>
-      <c r="W88" s="50"/>
-      <c r="X88" s="50"/>
-      <c r="Y88" s="50"/>
-      <c r="Z88" s="50"/>
-      <c r="AA88" s="50"/>
-      <c r="AB88" s="50"/>
-      <c r="AC88" s="50"/>
-      <c r="AD88" s="50"/>
-      <c r="AE88" s="50"/>
-      <c r="AF88" s="50"/>
-      <c r="AG88" s="50"/>
-      <c r="AH88" s="50"/>
-      <c r="AI88" s="50"/>
-      <c r="AJ88" s="44"/>
-      <c r="AK88" s="4"/>
-    </row>
-    <row r="89" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B89" s="49" t="s">
+      <c r="C90" s="94"/>
+      <c r="D90" s="94"/>
+      <c r="E90" s="94"/>
+      <c r="F90" s="94"/>
+      <c r="G90" s="94"/>
+      <c r="H90" s="94"/>
+      <c r="I90" s="94"/>
+      <c r="J90" s="94"/>
+      <c r="K90" s="94"/>
+      <c r="L90" s="94"/>
+      <c r="M90" s="94"/>
+      <c r="N90" s="94"/>
+      <c r="O90" s="94"/>
+      <c r="P90" s="94"/>
+      <c r="Q90" s="94"/>
+      <c r="R90" s="94"/>
+      <c r="S90" s="94"/>
+      <c r="T90" s="94"/>
+      <c r="U90" s="94"/>
+      <c r="V90" s="94"/>
+      <c r="W90" s="94"/>
+      <c r="X90" s="94"/>
+      <c r="Y90" s="94"/>
+      <c r="Z90" s="94"/>
+      <c r="AA90" s="94"/>
+      <c r="AB90" s="94"/>
+      <c r="AC90" s="94"/>
+      <c r="AD90" s="94"/>
+      <c r="AE90" s="94"/>
+      <c r="AF90" s="94"/>
+      <c r="AG90" s="94"/>
+      <c r="AH90" s="94"/>
+      <c r="AI90" s="94"/>
+      <c r="AJ90" s="43"/>
+      <c r="AK90" s="4"/>
+    </row>
+    <row r="91" spans="2:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="50"/>
-      <c r="O89" s="50"/>
-      <c r="P89" s="50"/>
-      <c r="Q89" s="50"/>
-      <c r="R89" s="50"/>
-      <c r="S89" s="50"/>
-      <c r="T89" s="50"/>
-      <c r="U89" s="50"/>
-      <c r="V89" s="50"/>
-      <c r="W89" s="50"/>
-      <c r="X89" s="50"/>
-      <c r="Y89" s="50"/>
-      <c r="Z89" s="50"/>
-      <c r="AA89" s="50"/>
-      <c r="AB89" s="50"/>
-      <c r="AC89" s="50"/>
-      <c r="AD89" s="50"/>
-      <c r="AE89" s="50"/>
-      <c r="AF89" s="50"/>
-      <c r="AG89" s="50"/>
-      <c r="AH89" s="50"/>
-      <c r="AI89" s="50"/>
-      <c r="AJ89" s="44"/>
-      <c r="AK89" s="4"/>
-    </row>
-    <row r="90" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B90" s="49" t="s">
+      <c r="C91" s="94"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="94"/>
+      <c r="H91" s="94"/>
+      <c r="I91" s="94"/>
+      <c r="J91" s="94"/>
+      <c r="K91" s="94"/>
+      <c r="L91" s="94"/>
+      <c r="M91" s="94"/>
+      <c r="N91" s="94"/>
+      <c r="O91" s="94"/>
+      <c r="P91" s="94"/>
+      <c r="Q91" s="94"/>
+      <c r="R91" s="94"/>
+      <c r="S91" s="94"/>
+      <c r="T91" s="94"/>
+      <c r="U91" s="94"/>
+      <c r="V91" s="94"/>
+      <c r="W91" s="94"/>
+      <c r="X91" s="94"/>
+      <c r="Y91" s="94"/>
+      <c r="Z91" s="94"/>
+      <c r="AA91" s="94"/>
+      <c r="AB91" s="94"/>
+      <c r="AC91" s="94"/>
+      <c r="AD91" s="94"/>
+      <c r="AE91" s="94"/>
+      <c r="AF91" s="94"/>
+      <c r="AG91" s="94"/>
+      <c r="AH91" s="94"/>
+      <c r="AI91" s="94"/>
+      <c r="AJ91" s="43"/>
+      <c r="AK91" s="4"/>
+    </row>
+    <row r="92" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="26"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="26"/>
+      <c r="AA92" s="26"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="26"/>
+      <c r="AD92" s="26"/>
+      <c r="AE92" s="26"/>
+      <c r="AF92" s="26"/>
+      <c r="AG92" s="26"/>
+      <c r="AH92" s="26"/>
+      <c r="AI92" s="26"/>
+      <c r="AJ92" s="43"/>
+      <c r="AK92" s="4"/>
+    </row>
+    <row r="93" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="50"/>
-      <c r="O90" s="50"/>
-      <c r="P90" s="50"/>
-      <c r="Q90" s="50"/>
-      <c r="R90" s="50"/>
-      <c r="S90" s="50"/>
-      <c r="T90" s="50"/>
-      <c r="U90" s="50"/>
-      <c r="V90" s="50"/>
-      <c r="W90" s="50"/>
-      <c r="X90" s="50"/>
-      <c r="Y90" s="50"/>
-      <c r="Z90" s="50"/>
-      <c r="AA90" s="50"/>
-      <c r="AB90" s="50"/>
-      <c r="AC90" s="50"/>
-      <c r="AD90" s="50"/>
-      <c r="AE90" s="50"/>
-      <c r="AF90" s="50"/>
-      <c r="AG90" s="50"/>
-      <c r="AH90" s="50"/>
-      <c r="AI90" s="50"/>
-      <c r="AJ90" s="44"/>
-      <c r="AK90" s="4"/>
-    </row>
-    <row r="91" spans="2:37" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="50"/>
-      <c r="O91" s="50"/>
-      <c r="P91" s="50"/>
-      <c r="Q91" s="50"/>
-      <c r="R91" s="50"/>
-      <c r="S91" s="50"/>
-      <c r="T91" s="50"/>
-      <c r="U91" s="50"/>
-      <c r="V91" s="50"/>
-      <c r="W91" s="50"/>
-      <c r="X91" s="50"/>
-      <c r="Y91" s="50"/>
-      <c r="Z91" s="50"/>
-      <c r="AA91" s="50"/>
-      <c r="AB91" s="50"/>
-      <c r="AC91" s="50"/>
-      <c r="AD91" s="50"/>
-      <c r="AE91" s="50"/>
-      <c r="AF91" s="50"/>
-      <c r="AG91" s="50"/>
-      <c r="AH91" s="50"/>
-      <c r="AI91" s="50"/>
-      <c r="AJ91" s="44"/>
-      <c r="AK91" s="4"/>
-    </row>
-    <row r="92" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="26"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="27"/>
-      <c r="T92" s="27"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="27"/>
-      <c r="W92" s="27"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="27"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="27"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="27"/>
-      <c r="AE92" s="27"/>
-      <c r="AF92" s="27"/>
-      <c r="AG92" s="27"/>
-      <c r="AH92" s="27"/>
-      <c r="AI92" s="27"/>
-      <c r="AJ92" s="44"/>
-      <c r="AK92" s="4"/>
-    </row>
-    <row r="93" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="52"/>
-      <c r="J93" s="52"/>
-      <c r="K93" s="52"/>
-      <c r="L93" s="52"/>
-      <c r="M93" s="52"/>
-      <c r="N93" s="52"/>
-      <c r="O93" s="52"/>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="52"/>
-      <c r="R93" s="52"/>
-      <c r="S93" s="52"/>
-      <c r="T93" s="52"/>
-      <c r="U93" s="52"/>
-      <c r="V93" s="52"/>
-      <c r="W93" s="52"/>
-      <c r="X93" s="52"/>
-      <c r="Y93" s="52"/>
-      <c r="Z93" s="52"/>
-      <c r="AA93" s="52"/>
-      <c r="AB93" s="53" t="s">
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="51"/>
+      <c r="T93" s="51"/>
+      <c r="U93" s="51"/>
+      <c r="V93" s="51"/>
+      <c r="W93" s="51"/>
+      <c r="X93" s="51"/>
+      <c r="Y93" s="51"/>
+      <c r="Z93" s="51"/>
+      <c r="AA93" s="51"/>
+      <c r="AB93" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AC93" s="54"/>
-      <c r="AD93" s="54"/>
-      <c r="AE93" s="54"/>
-      <c r="AF93" s="54"/>
-      <c r="AG93" s="54"/>
-      <c r="AH93" s="54"/>
-      <c r="AI93" s="54"/>
-      <c r="AJ93" s="55"/>
+      <c r="AC93" s="109"/>
+      <c r="AD93" s="109"/>
+      <c r="AE93" s="109"/>
+      <c r="AF93" s="109"/>
+      <c r="AG93" s="109"/>
+      <c r="AH93" s="109"/>
+      <c r="AI93" s="109"/>
+      <c r="AJ93" s="110"/>
       <c r="AK93" s="4"/>
     </row>
     <row r="94" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B94" s="26"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="27"/>
-      <c r="P94" s="27"/>
-      <c r="Q94" s="27"/>
-      <c r="R94" s="27"/>
-      <c r="S94" s="27"/>
-      <c r="T94" s="27"/>
-      <c r="U94" s="27"/>
-      <c r="V94" s="27"/>
-      <c r="W94" s="27"/>
-      <c r="X94" s="27"/>
-      <c r="Y94" s="27"/>
-      <c r="Z94" s="27"/>
-      <c r="AA94" s="27"/>
-      <c r="AB94" s="27"/>
-      <c r="AC94" s="27"/>
-      <c r="AD94" s="27"/>
-      <c r="AE94" s="27"/>
-      <c r="AF94" s="27"/>
-      <c r="AG94" s="27"/>
-      <c r="AH94" s="27"/>
-      <c r="AI94" s="27"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="26"/>
+      <c r="S94" s="26"/>
+      <c r="T94" s="26"/>
+      <c r="U94" s="26"/>
+      <c r="V94" s="26"/>
+      <c r="W94" s="26"/>
+      <c r="X94" s="26"/>
+      <c r="Y94" s="26"/>
+      <c r="Z94" s="26"/>
+      <c r="AA94" s="26"/>
+      <c r="AB94" s="26"/>
+      <c r="AC94" s="26"/>
+      <c r="AD94" s="26"/>
+      <c r="AE94" s="26"/>
+      <c r="AF94" s="26"/>
+      <c r="AG94" s="26"/>
+      <c r="AH94" s="26"/>
+      <c r="AI94" s="26"/>
       <c r="AJ94" s="23"/>
       <c r="AK94" s="4"/>
     </row>
     <row r="95" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -5554,7 +5612,7 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
@@ -5571,48 +5629,48 @@
       <c r="AH95" s="21"/>
       <c r="AI95" s="4"/>
       <c r="AJ95" s="18"/>
-      <c r="AK95" s="27"/>
+      <c r="AK95" s="26"/>
     </row>
     <row r="96" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="46"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="46"/>
-      <c r="S96" s="46"/>
-      <c r="T96" s="46"/>
-      <c r="U96" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="V96" s="48"/>
-      <c r="W96" s="48"/>
-      <c r="X96" s="48"/>
-      <c r="Y96" s="48"/>
-      <c r="Z96" s="48"/>
-      <c r="AA96" s="48"/>
-      <c r="AB96" s="48"/>
-      <c r="AC96" s="48"/>
-      <c r="AD96" s="48"/>
-      <c r="AE96" s="48"/>
-      <c r="AF96" s="48"/>
-      <c r="AG96" s="48"/>
-      <c r="AH96" s="48"/>
-      <c r="AI96" s="48"/>
-      <c r="AJ96" s="47"/>
+      <c r="B96" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="45"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+      <c r="S96" s="45"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="V96" s="107"/>
+      <c r="W96" s="107"/>
+      <c r="X96" s="107"/>
+      <c r="Y96" s="107"/>
+      <c r="Z96" s="107"/>
+      <c r="AA96" s="107"/>
+      <c r="AB96" s="107"/>
+      <c r="AC96" s="107"/>
+      <c r="AD96" s="107"/>
+      <c r="AE96" s="107"/>
+      <c r="AF96" s="107"/>
+      <c r="AG96" s="107"/>
+      <c r="AH96" s="107"/>
+      <c r="AI96" s="107"/>
+      <c r="AJ96" s="46"/>
       <c r="AK96" s="4"/>
     </row>
     <row r="97" x14ac:dyDescent="0.25"/>
@@ -5620,53 +5678,76 @@
     <row r="99" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="B15:AA15"/>
-    <mergeCell ref="AB15:AI15"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="D2:AI2"/>
-    <mergeCell ref="D3:AI3"/>
-    <mergeCell ref="B5:AA5"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="E6:Q6"/>
-    <mergeCell ref="U6:AJ6"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="B27:AA27"/>
-    <mergeCell ref="AB27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X28:AC28"/>
-    <mergeCell ref="AD28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:AC29"/>
-    <mergeCell ref="AD29:AI29"/>
-    <mergeCell ref="X30:AC30"/>
-    <mergeCell ref="AD30:AI30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="X31:AC31"/>
-    <mergeCell ref="AD31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="U96:AI96"/>
+    <mergeCell ref="B87:AI87"/>
+    <mergeCell ref="B88:AI88"/>
+    <mergeCell ref="B89:AI89"/>
+    <mergeCell ref="B90:AI90"/>
+    <mergeCell ref="B91:AI91"/>
+    <mergeCell ref="B93:AA93"/>
+    <mergeCell ref="AB93:AJ93"/>
+    <mergeCell ref="B77:AA77"/>
+    <mergeCell ref="AB77:AJ77"/>
+    <mergeCell ref="B83:AA83"/>
+    <mergeCell ref="AB83:AJ83"/>
+    <mergeCell ref="B85:AI85"/>
+    <mergeCell ref="B86:AI86"/>
+    <mergeCell ref="AE62:AG62"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="B64:AJ64"/>
+    <mergeCell ref="B65:AJ65"/>
+    <mergeCell ref="B66:AA66"/>
+    <mergeCell ref="AB66:AI66"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="AE60:AG60"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="AB61:AD61"/>
+    <mergeCell ref="AE61:AG61"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="AE57:AG57"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="AE58:AG58"/>
+    <mergeCell ref="B34:AJ34"/>
+    <mergeCell ref="B35:AJ35"/>
+    <mergeCell ref="B36:AA36"/>
+    <mergeCell ref="AB36:AI36"/>
+    <mergeCell ref="B37:AJ37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AE38:AG38"/>
     <mergeCell ref="X32:AC32"/>
     <mergeCell ref="AD32:AI32"/>
     <mergeCell ref="B33:C33"/>
@@ -5683,78 +5764,55 @@
     <mergeCell ref="L32:O32"/>
     <mergeCell ref="P32:S32"/>
     <mergeCell ref="T32:W32"/>
-    <mergeCell ref="B34:AJ34"/>
-    <mergeCell ref="B35:AJ35"/>
-    <mergeCell ref="B36:AA36"/>
-    <mergeCell ref="AB36:AI36"/>
-    <mergeCell ref="B37:AJ37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AE38:AG38"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="AE57:AG57"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="AE58:AG58"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="AE60:AG60"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="AB61:AD61"/>
-    <mergeCell ref="AE61:AG61"/>
-    <mergeCell ref="AE62:AG62"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="B64:AJ64"/>
-    <mergeCell ref="B65:AJ65"/>
-    <mergeCell ref="B66:AA66"/>
-    <mergeCell ref="AB66:AI66"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="U96:AI96"/>
-    <mergeCell ref="B87:AI87"/>
-    <mergeCell ref="B88:AI88"/>
-    <mergeCell ref="B89:AI89"/>
-    <mergeCell ref="B90:AI90"/>
-    <mergeCell ref="B91:AI91"/>
-    <mergeCell ref="B93:AA93"/>
-    <mergeCell ref="AB93:AJ93"/>
-    <mergeCell ref="B77:AA77"/>
-    <mergeCell ref="AB77:AJ77"/>
-    <mergeCell ref="B83:AA83"/>
-    <mergeCell ref="AB83:AJ83"/>
-    <mergeCell ref="B85:AI85"/>
-    <mergeCell ref="B86:AI86"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="X31:AC31"/>
+    <mergeCell ref="AD31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:AC29"/>
+    <mergeCell ref="AD29:AI29"/>
+    <mergeCell ref="X30:AC30"/>
+    <mergeCell ref="AD30:AI30"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="B27:AA27"/>
+    <mergeCell ref="AB27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:AC28"/>
+    <mergeCell ref="AD28:AI28"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="B15:AA15"/>
+    <mergeCell ref="AB15:AI15"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="D2:AI2"/>
+    <mergeCell ref="D3:AI3"/>
+    <mergeCell ref="B5:AA5"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="U6:AJ6"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB78:AD82 AB25:AD26" xr:uid="{35128A5E-6149-45E2-AF22-D6F1FA126FF6}">
       <formula1>$A$10:$A$11</formula1>
     </dataValidation>
